--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.655958972199484</v>
+        <v>0.604641563855471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.54445813799166</v>
+        <v>0.559146878126675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.781963371913334</v>
+        <v>0.73846559722504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.502750275027503</v>
+        <v>0.552454750474803</v>
       </c>
       <c r="F2" t="n">
-        <v>0.592707530909072</v>
+        <v>0.537796840369709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.852276691481802</v>
+        <v>0.851810485732909</v>
       </c>
       <c r="H2" t="n">
-        <v>0.660680768523735</v>
+        <v>0.677652397445856</v>
       </c>
       <c r="I2" t="n">
-        <v>0.646185794247703</v>
+        <v>0.657034754625492</v>
       </c>
       <c r="J2" t="n">
-        <v>0.591621537464502</v>
+        <v>0.574751330386994</v>
       </c>
       <c r="K2" t="n">
-        <v>0.614959367721535</v>
+        <v>0.471706181446129</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold(All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold(Europe)</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -413,40 +419,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.604641563855471</v>
+        <v>0.55468268979227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.559146878126675</v>
+        <v>0.622017379754577</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73846559722504</v>
+        <v>0.612356985514925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.552454750474803</v>
+        <v>0.581777133133904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.537796840369709</v>
+        <v>0.739913584563118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.851810485732909</v>
+        <v>0.534948999740369</v>
       </c>
       <c r="H2" t="n">
-        <v>0.677652397445856</v>
+        <v>0.664453305286869</v>
       </c>
       <c r="I2" t="n">
-        <v>0.657034754625492</v>
+        <v>0.592086655549235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.574751330386994</v>
+        <v>0.638546618131183</v>
       </c>
       <c r="K2" t="n">
-        <v>0.471706181446129</v>
+        <v>0.55247423355968</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.842896551734276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.453059461603854</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold(All)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ bold(Europe)</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -431,40 +431,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.55468268979227</v>
+        <v>0.570077475929135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.622017379754577</v>
+        <v>0.622364359578668</v>
       </c>
       <c r="D2" t="n">
-        <v>0.612356985514925</v>
+        <v>0.610995779367554</v>
       </c>
       <c r="E2" t="n">
-        <v>0.581777133133904</v>
+        <v>0.580675276525261</v>
       </c>
       <c r="F2" t="n">
-        <v>0.739913584563118</v>
+        <v>0.757745370786225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.534948999740369</v>
+        <v>0.532876856008449</v>
       </c>
       <c r="H2" t="n">
-        <v>0.664453305286869</v>
+        <v>0.676733910381647</v>
       </c>
       <c r="I2" t="n">
-        <v>0.592086655549235</v>
+        <v>0.57348757385207</v>
       </c>
       <c r="J2" t="n">
-        <v>0.638546618131183</v>
+        <v>0.630409253504322</v>
       </c>
       <c r="K2" t="n">
-        <v>0.55247423355968</v>
+        <v>0.551678716644127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.842896551734276</v>
+        <v>0.845940176912417</v>
       </c>
       <c r="M2" t="n">
-        <v>0.453059461603854</v>
+        <v>0.493297861716677</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -431,40 +431,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.570077475929135</v>
+        <v>0.568618171438432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.622364359578668</v>
+        <v>0.624001849679936</v>
       </c>
       <c r="D2" t="n">
         <v>0.610995779367554</v>
       </c>
       <c r="E2" t="n">
-        <v>0.580675276525261</v>
+        <v>0.582360283219923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.757745370786225</v>
+        <v>0.757217964426447</v>
       </c>
       <c r="G2" t="n">
         <v>0.532876856008449</v>
       </c>
       <c r="H2" t="n">
-        <v>0.676733910381647</v>
+        <v>0.68307838195468</v>
       </c>
       <c r="I2" t="n">
-        <v>0.57348757385207</v>
+        <v>0.575266630334687</v>
       </c>
       <c r="J2" t="n">
-        <v>0.630409253504322</v>
+        <v>0.638943857257609</v>
       </c>
       <c r="K2" t="n">
         <v>0.551678716644127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.845940176912417</v>
+        <v>0.843413514265041</v>
       </c>
       <c r="M2" t="n">
-        <v>0.493297861716677</v>
+        <v>0.477634812997704</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -431,40 +431,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.568618171438432</v>
+        <v>0.564056918460414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.624001849679936</v>
+        <v>0.626104574696674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.610995779367554</v>
+        <v>0.622273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.582360283219923</v>
+        <v>0.567933697165467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.757217964426447</v>
+        <v>0.757304011850663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.532876856008449</v>
+        <v>0.53058303552895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.68307838195468</v>
+        <v>0.689059343539561</v>
       </c>
       <c r="I2" t="n">
-        <v>0.575266630334687</v>
+        <v>0.593195783835747</v>
       </c>
       <c r="J2" t="n">
-        <v>0.638943857257609</v>
+        <v>0.623575700142156</v>
       </c>
       <c r="K2" t="n">
-        <v>0.551678716644127</v>
+        <v>0.548050017237745</v>
       </c>
       <c r="L2" t="n">
-        <v>0.843413514265041</v>
+        <v>0.846428606188793</v>
       </c>
       <c r="M2" t="n">
-        <v>0.477634812997704</v>
+        <v>0.474614389262856</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -425,13 +428,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.564056918460414</v>
+        <v>0.554258283605262</v>
       </c>
       <c r="C2" t="n">
         <v>0.626104574696674</v>
@@ -461,9 +467,12 @@
         <v>0.548050017237745</v>
       </c>
       <c r="L2" t="n">
+        <v>0.4941326408185</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.846428606188793</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.474614389262856</v>
       </c>
     </row>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.554258283605262</v>
+        <v>0.553718303775116</v>
       </c>
       <c r="C2" t="n">
         <v>0.626104574696674</v>
@@ -461,19 +461,19 @@
         <v>0.593195783835747</v>
       </c>
       <c r="J2" t="n">
-        <v>0.623575700142156</v>
+        <v>0.623575700142155</v>
       </c>
       <c r="K2" t="n">
-        <v>0.548050017237745</v>
+        <v>0.548090076208069</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4941326408185</v>
+        <v>0.490282605200155</v>
       </c>
       <c r="M2" t="n">
         <v>0.846428606188793</v>
       </c>
       <c r="N2" t="n">
-        <v>0.474614389262856</v>
+        <v>0.474912333237318</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_support_control_positive.xlsx
+++ b/xlsx/country_comparison/gcs_support_control_positive.xlsx
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.553718303775116</v>
+        <v>0.553746767090015</v>
       </c>
       <c r="C2" t="n">
         <v>0.626104574696674</v>
@@ -467,7 +467,7 @@
         <v>0.548090076208069</v>
       </c>
       <c r="L2" t="n">
-        <v>0.490282605200155</v>
+        <v>0.490485989036895</v>
       </c>
       <c r="M2" t="n">
         <v>0.846428606188793</v>
